--- a/BalanceSheet/ATVI_bal.xlsx
+++ b/BalanceSheet/ATVI_bal.xlsx
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="F4" s="0" t="n">
-        <v>72000000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>102000000.0</v>
@@ -1818,19 +1818,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>61000000.0</v>
+        <v>295000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>42000000.0</v>
+        <v>224000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>19000000.0</v>
+        <v>177000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-132000000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>9000000.0</v>
+        <v>292000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>274000000.0</v>
@@ -2838,19 +2838,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-81000000.0</v>
+        <v>-900000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>-807000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>-785000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>11000000.0</v>
+        <v>-776000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-452000000.0</v>
+        <v>-788000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>23000000.0</v>
